--- a/Chips2016-01.xlsx
+++ b/Chips2016-01.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="145">
   <si>
     <t>Final status</t>
   </si>
@@ -433,13 +433,31 @@
   </si>
   <si>
     <t>SLAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> soft prod test</t>
+  </si>
+  <si>
+    <t>Reserved</t>
+  </si>
+  <si>
+    <t>Pending (noise)</t>
+  </si>
+  <si>
+    <t>I.P.N.L</t>
+  </si>
+  <si>
+    <t>SLAC REB4</t>
+  </si>
+  <si>
+    <t>CSAM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -454,8 +472,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -504,8 +528,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -528,11 +570,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -544,6 +597,13 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -848,8 +908,8 @@
   <dimension ref="A1:J211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G145" sqref="G145"/>
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F81" sqref="F81:F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,6 +1043,9 @@
       <c r="A8">
         <v>306</v>
       </c>
+      <c r="B8" s="11" t="s">
+        <v>140</v>
+      </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
@@ -995,7 +1058,9 @@
       <c r="F8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="10"/>
+      <c r="G8" s="10" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -1057,6 +1122,9 @@
       <c r="A13">
         <v>311</v>
       </c>
+      <c r="B13" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="C13" t="s">
         <v>11</v>
       </c>
@@ -1071,6 +1139,9 @@
       <c r="A14">
         <v>312</v>
       </c>
+      <c r="B14" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="D14" s="2" t="s">
         <v>7</v>
       </c>
@@ -1082,6 +1153,9 @@
       <c r="A15">
         <v>313</v>
       </c>
+      <c r="B15" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="D15" s="2" t="s">
         <v>7</v>
       </c>
@@ -1093,6 +1167,9 @@
       <c r="A16">
         <v>314</v>
       </c>
+      <c r="B16" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="C16" t="s">
         <v>11</v>
       </c>
@@ -1107,6 +1184,9 @@
       <c r="A17">
         <v>315</v>
       </c>
+      <c r="B17" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="D17" s="2" t="s">
         <v>7</v>
       </c>
@@ -1118,6 +1198,9 @@
       <c r="A18">
         <v>316</v>
       </c>
+      <c r="B18" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="D18" s="2" t="s">
         <v>7</v>
       </c>
@@ -1129,6 +1212,9 @@
       <c r="A19">
         <v>317</v>
       </c>
+      <c r="B19" s="11" t="s">
+        <v>140</v>
+      </c>
       <c r="D19" s="2" t="s">
         <v>7</v>
       </c>
@@ -1138,12 +1224,17 @@
       <c r="F19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="10"/>
+      <c r="G19" s="10" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>318</v>
       </c>
+      <c r="B20" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="D20" s="2" t="s">
         <v>7</v>
       </c>
@@ -1155,6 +1246,9 @@
       <c r="A21">
         <v>319</v>
       </c>
+      <c r="B21" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="D21" s="2" t="s">
         <v>7</v>
       </c>
@@ -1166,6 +1260,9 @@
       <c r="A22">
         <v>320</v>
       </c>
+      <c r="B22" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="D22" s="2" t="s">
         <v>7</v>
       </c>
@@ -1177,6 +1274,9 @@
       <c r="A23">
         <v>321</v>
       </c>
+      <c r="B23" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="D23" s="2" t="s">
         <v>7</v>
       </c>
@@ -1188,6 +1288,9 @@
       <c r="A24">
         <v>322</v>
       </c>
+      <c r="B24" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="D24" s="2" t="s">
         <v>7</v>
       </c>
@@ -1199,6 +1302,9 @@
       <c r="A25">
         <v>323</v>
       </c>
+      <c r="B25" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="D25" s="2" t="s">
         <v>7</v>
       </c>
@@ -1210,6 +1316,9 @@
       <c r="A26">
         <v>324</v>
       </c>
+      <c r="B26" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="D26" s="2" t="s">
         <v>7</v>
       </c>
@@ -1221,6 +1330,9 @@
       <c r="A27">
         <v>325</v>
       </c>
+      <c r="B27" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="D27" s="2" t="s">
         <v>7</v>
       </c>
@@ -1232,6 +1344,9 @@
       <c r="A28">
         <v>326</v>
       </c>
+      <c r="B28" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="D28" s="2" t="s">
         <v>7</v>
       </c>
@@ -1240,8 +1355,11 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="13">
         <v>327</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>142</v>
       </c>
       <c r="C29" t="s">
         <v>122</v>
@@ -1282,6 +1400,9 @@
       <c r="A32">
         <v>330</v>
       </c>
+      <c r="B32" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="D32" s="2" t="s">
         <v>7</v>
       </c>
@@ -1293,6 +1414,9 @@
       <c r="A33">
         <v>331</v>
       </c>
+      <c r="B33" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="C33" t="s">
         <v>120</v>
       </c>
@@ -1307,6 +1431,9 @@
       <c r="A34">
         <v>332</v>
       </c>
+      <c r="B34" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="C34" t="s">
         <v>120</v>
       </c>
@@ -1321,6 +1448,9 @@
       <c r="A35">
         <v>333</v>
       </c>
+      <c r="B35" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="D35" s="2" t="s">
         <v>7</v>
       </c>
@@ -1332,6 +1462,9 @@
       <c r="A36">
         <v>334</v>
       </c>
+      <c r="B36" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="D36" s="2" t="s">
         <v>7</v>
       </c>
@@ -1343,6 +1476,9 @@
       <c r="A37">
         <v>335</v>
       </c>
+      <c r="B37" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="D37" s="2" t="s">
         <v>7</v>
       </c>
@@ -1354,6 +1490,9 @@
       <c r="A38">
         <v>336</v>
       </c>
+      <c r="B38" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="D38" s="2" t="s">
         <v>7</v>
       </c>
@@ -1365,6 +1504,9 @@
       <c r="A39">
         <v>337</v>
       </c>
+      <c r="B39" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="D39" s="2" t="s">
         <v>7</v>
       </c>
@@ -1376,6 +1518,9 @@
       <c r="A40">
         <v>338</v>
       </c>
+      <c r="B40" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="C40" t="s">
         <v>120</v>
       </c>
@@ -1390,6 +1535,9 @@
       <c r="A41">
         <v>339</v>
       </c>
+      <c r="B41" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="D41" s="2" t="s">
         <v>7</v>
       </c>
@@ -1401,6 +1549,9 @@
       <c r="A42">
         <v>340</v>
       </c>
+      <c r="B42" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="C42" t="s">
         <v>11</v>
       </c>
@@ -1415,6 +1566,9 @@
       <c r="A43">
         <v>341</v>
       </c>
+      <c r="B43" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="D43" s="2" t="s">
         <v>7</v>
       </c>
@@ -1426,6 +1580,9 @@
       <c r="A44">
         <v>342</v>
       </c>
+      <c r="B44" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="D44" s="2" t="s">
         <v>7</v>
       </c>
@@ -1437,6 +1594,9 @@
       <c r="A45">
         <v>343</v>
       </c>
+      <c r="B45" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="D45" s="2" t="s">
         <v>7</v>
       </c>
@@ -1448,6 +1608,9 @@
       <c r="A46">
         <v>344</v>
       </c>
+      <c r="B46" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="C46" t="s">
         <v>11</v>
       </c>
@@ -1462,6 +1625,9 @@
       <c r="A47">
         <v>345</v>
       </c>
+      <c r="B47" s="15" t="s">
+        <v>144</v>
+      </c>
       <c r="C47" t="s">
         <v>123</v>
       </c>
@@ -1501,6 +1667,9 @@
       <c r="A50">
         <v>348</v>
       </c>
+      <c r="B50" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="D50" s="2" t="s">
         <v>7</v>
       </c>
@@ -1512,6 +1681,9 @@
       <c r="A51">
         <v>349</v>
       </c>
+      <c r="B51" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="D51" s="2" t="s">
         <v>7</v>
       </c>
@@ -1523,6 +1695,9 @@
       <c r="A52">
         <v>350</v>
       </c>
+      <c r="B52" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="D52" s="2" t="s">
         <v>7</v>
       </c>
@@ -1534,6 +1709,9 @@
       <c r="A53">
         <v>351</v>
       </c>
+      <c r="B53" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="D53" s="2" t="s">
         <v>7</v>
       </c>
@@ -1545,6 +1723,9 @@
       <c r="A54">
         <v>352</v>
       </c>
+      <c r="B54" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="D54" s="2" t="s">
         <v>7</v>
       </c>
@@ -1556,6 +1737,9 @@
       <c r="A55">
         <v>353</v>
       </c>
+      <c r="B55" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="D55" s="2" t="s">
         <v>7</v>
       </c>
@@ -1567,6 +1751,9 @@
       <c r="A56">
         <v>354</v>
       </c>
+      <c r="B56" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="D56" s="2" t="s">
         <v>7</v>
       </c>
@@ -1578,6 +1765,9 @@
       <c r="A57">
         <v>355</v>
       </c>
+      <c r="B57" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="D57" s="2" t="s">
         <v>7</v>
       </c>
@@ -1589,6 +1779,9 @@
       <c r="A58">
         <v>356</v>
       </c>
+      <c r="B58" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="D58" s="2" t="s">
         <v>7</v>
       </c>
@@ -1600,6 +1793,9 @@
       <c r="A59">
         <v>357</v>
       </c>
+      <c r="B59" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="D59" s="2" t="s">
         <v>7</v>
       </c>
@@ -1611,6 +1807,9 @@
       <c r="A60">
         <v>358</v>
       </c>
+      <c r="B60" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="D60" s="2" t="s">
         <v>7</v>
       </c>
@@ -1622,6 +1821,9 @@
       <c r="A61">
         <v>359</v>
       </c>
+      <c r="B61" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="D61" s="2" t="s">
         <v>7</v>
       </c>
@@ -1633,6 +1835,9 @@
       <c r="A62">
         <v>360</v>
       </c>
+      <c r="B62" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="D62" s="2" t="s">
         <v>7</v>
       </c>
@@ -1644,6 +1849,9 @@
       <c r="A63">
         <v>361</v>
       </c>
+      <c r="B63" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="D63" s="2" t="s">
         <v>7</v>
       </c>
@@ -1655,6 +1863,9 @@
       <c r="A64">
         <v>362</v>
       </c>
+      <c r="B64" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="D64" s="2" t="s">
         <v>7</v>
       </c>
@@ -1666,6 +1877,9 @@
       <c r="A65">
         <v>363</v>
       </c>
+      <c r="B65" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="D65" s="2" t="s">
         <v>7</v>
       </c>
@@ -1691,18 +1905,26 @@
       <c r="A67">
         <v>365</v>
       </c>
+      <c r="B67" s="15" t="s">
+        <v>144</v>
+      </c>
       <c r="D67" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G67" s="10"/>
+      <c r="G67" s="10" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>366</v>
       </c>
+      <c r="B68" s="11" t="s">
+        <v>140</v>
+      </c>
       <c r="C68" t="s">
         <v>11</v>
       </c>
@@ -1712,7 +1934,9 @@
       <c r="F68" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G68" s="10"/>
+      <c r="G68" s="10" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
@@ -1735,6 +1959,9 @@
       <c r="A70">
         <v>368</v>
       </c>
+      <c r="B70" s="15" t="s">
+        <v>144</v>
+      </c>
       <c r="C70" t="s">
         <v>11</v>
       </c>
@@ -1744,12 +1971,17 @@
       <c r="F70" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G70" s="10"/>
+      <c r="G70" s="10" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>369</v>
       </c>
+      <c r="B71" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="C71" t="s">
         <v>11</v>
       </c>
@@ -1764,6 +1996,9 @@
       <c r="A72">
         <v>370</v>
       </c>
+      <c r="B72" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="D72" s="2" t="s">
         <v>7</v>
       </c>
@@ -1789,6 +2024,9 @@
       <c r="A74">
         <v>372</v>
       </c>
+      <c r="B74" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="D74" s="2" t="s">
         <v>7</v>
       </c>
@@ -1800,6 +2038,9 @@
       <c r="A75">
         <v>373</v>
       </c>
+      <c r="B75" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="C75" t="s">
         <v>120</v>
       </c>
@@ -1814,6 +2055,9 @@
       <c r="A76">
         <v>374</v>
       </c>
+      <c r="B76" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="D76" s="2" t="s">
         <v>7</v>
       </c>
@@ -1831,6 +2075,12 @@
       <c r="D77" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E77" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
@@ -1842,6 +2092,12 @@
       <c r="D78" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E78" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
@@ -1853,6 +2109,9 @@
       <c r="D79" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="F79" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
@@ -1861,8 +2120,11 @@
       <c r="C80" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D80" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>379</v>
       </c>
@@ -1872,8 +2134,11 @@
       <c r="D81" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F81" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>380</v>
       </c>
@@ -1883,8 +2148,11 @@
       <c r="D82" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F82" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>381</v>
       </c>
@@ -1895,7 +2163,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>382</v>
       </c>
@@ -1906,7 +2174,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>383</v>
       </c>
@@ -1917,7 +2185,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>384</v>
       </c>
@@ -1928,7 +2196,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>385</v>
       </c>
@@ -1939,15 +2207,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>386</v>
       </c>
       <c r="C88" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D88" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>387</v>
       </c>
@@ -1958,7 +2229,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>388</v>
       </c>
@@ -1969,7 +2240,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>389</v>
       </c>
@@ -1980,7 +2251,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>390</v>
       </c>
@@ -1991,7 +2262,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>391</v>
       </c>
@@ -2002,7 +2273,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>392</v>
       </c>
@@ -2013,7 +2284,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>393</v>
       </c>
@@ -2024,12 +2295,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>394</v>
       </c>
       <c r="C96" t="s">
         <v>121</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -2039,6 +2313,9 @@
       <c r="C97" t="s">
         <v>121</v>
       </c>
+      <c r="D97" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
@@ -2058,6 +2335,9 @@
       <c r="C99" t="s">
         <v>121</v>
       </c>
+      <c r="D99" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
@@ -2077,6 +2357,9 @@
       <c r="C101" t="s">
         <v>121</v>
       </c>
+      <c r="D101" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
@@ -2117,6 +2400,9 @@
       <c r="A106" t="s">
         <v>13</v>
       </c>
+      <c r="B106" s="11" t="s">
+        <v>140</v>
+      </c>
       <c r="C106" t="s">
         <v>119</v>
       </c>
@@ -2126,7 +2412,9 @@
       <c r="F106" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G106" s="10"/>
+      <c r="G106" s="10" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
@@ -2165,6 +2453,9 @@
       <c r="A110" t="s">
         <v>17</v>
       </c>
+      <c r="B110" s="11" t="s">
+        <v>140</v>
+      </c>
       <c r="C110" t="s">
         <v>126</v>
       </c>
@@ -2174,7 +2465,9 @@
       <c r="F110" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G110" s="10"/>
+      <c r="G110" s="10" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
@@ -2219,8 +2512,11 @@
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="A114" s="13" t="s">
         <v>21</v>
+      </c>
+      <c r="B114" s="12" t="s">
+        <v>142</v>
       </c>
       <c r="C114" t="s">
         <v>128</v>
@@ -2265,8 +2561,11 @@
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+      <c r="A116" s="13" t="s">
         <v>23</v>
+      </c>
+      <c r="B116" s="12" t="s">
+        <v>142</v>
       </c>
       <c r="C116" t="s">
         <v>127</v>
@@ -2288,6 +2587,9 @@
       <c r="A117" t="s">
         <v>24</v>
       </c>
+      <c r="B117" s="15" t="s">
+        <v>144</v>
+      </c>
       <c r="C117" t="s">
         <v>130</v>
       </c>
@@ -2297,12 +2599,17 @@
       <c r="F117" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G117" s="10"/>
+      <c r="G117" s="10" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>25</v>
       </c>
+      <c r="B118" s="15" t="s">
+        <v>144</v>
+      </c>
       <c r="C118" t="s">
         <v>131</v>
       </c>
@@ -2312,7 +2619,9 @@
       <c r="F118" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G118" s="10"/>
+      <c r="G118" s="10" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
@@ -2476,18 +2785,26 @@
       <c r="A132" t="s">
         <v>39</v>
       </c>
+      <c r="B132" s="15" t="s">
+        <v>144</v>
+      </c>
       <c r="D132" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G132" s="10"/>
+      <c r="G132" s="10" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>40</v>
       </c>
+      <c r="B133" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="D133" s="2" t="s">
         <v>7</v>
       </c>
@@ -2499,6 +2816,9 @@
       <c r="A134" t="s">
         <v>41</v>
       </c>
+      <c r="B134" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="D134" s="2" t="s">
         <v>7</v>
       </c>
@@ -2513,6 +2833,9 @@
       <c r="A135" t="s">
         <v>42</v>
       </c>
+      <c r="B135" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="D135" s="2" t="s">
         <v>7</v>
       </c>
@@ -2524,6 +2847,9 @@
       <c r="A136" t="s">
         <v>43</v>
       </c>
+      <c r="B136" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="D136" s="2" t="s">
         <v>7</v>
       </c>
@@ -2535,6 +2861,9 @@
       <c r="A137" t="s">
         <v>44</v>
       </c>
+      <c r="B137" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="D137" s="2" t="s">
         <v>7</v>
       </c>
@@ -2546,6 +2875,9 @@
       <c r="A138" t="s">
         <v>45</v>
       </c>
+      <c r="B138" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="D138" s="2" t="s">
         <v>7</v>
       </c>
@@ -2557,6 +2889,9 @@
       <c r="A139" t="s">
         <v>46</v>
       </c>
+      <c r="B139" s="15" t="s">
+        <v>144</v>
+      </c>
       <c r="D139" s="6" t="s">
         <v>12</v>
       </c>
@@ -2593,6 +2928,9 @@
       <c r="A142" t="s">
         <v>49</v>
       </c>
+      <c r="B142" s="15" t="s">
+        <v>144</v>
+      </c>
       <c r="D142" s="6" t="s">
         <v>12</v>
       </c>
@@ -2604,6 +2942,9 @@
       <c r="A143" t="s">
         <v>50</v>
       </c>
+      <c r="B143" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="D143" s="2" t="s">
         <v>7</v>
       </c>
@@ -2615,6 +2956,9 @@
       <c r="A144" t="s">
         <v>51</v>
       </c>
+      <c r="B144" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="D144" s="2" t="s">
         <v>7</v>
       </c>
@@ -2626,6 +2970,9 @@
       <c r="A145" t="s">
         <v>52</v>
       </c>
+      <c r="B145" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="D145" s="2" t="s">
         <v>7</v>
       </c>
@@ -2637,6 +2984,9 @@
       <c r="A146" t="s">
         <v>53</v>
       </c>
+      <c r="B146" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="D146" s="2" t="s">
         <v>7</v>
       </c>
@@ -2648,7 +2998,13 @@
       <c r="A147" t="s">
         <v>54</v>
       </c>
+      <c r="B147" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="D147" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F147" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2656,312 +3012,792 @@
       <c r="A148" t="s">
         <v>55</v>
       </c>
+      <c r="B148" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="C148" t="s">
         <v>11</v>
       </c>
       <c r="D148" s="7" t="s">
         <v>10</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>56</v>
       </c>
+      <c r="B149" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="D149" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="F149" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+      <c r="A150" s="14" t="s">
         <v>57</v>
+      </c>
+      <c r="D150" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F150" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>58</v>
       </c>
+      <c r="D151" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>59</v>
       </c>
+      <c r="D152" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F152" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>60</v>
       </c>
+      <c r="D153" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F153" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>61</v>
       </c>
+      <c r="D154" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F154" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>62</v>
       </c>
+      <c r="B155" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C155" t="s">
+        <v>11</v>
+      </c>
+      <c r="D155" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>63</v>
       </c>
+      <c r="B156" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>64</v>
       </c>
+      <c r="B157" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>65</v>
       </c>
+      <c r="B158" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>66</v>
       </c>
+      <c r="B159" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D159" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B160" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C160" t="s">
+        <v>139</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B161" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C161" t="s">
+        <v>139</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B162" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C162" t="s">
+        <v>139</v>
+      </c>
+      <c r="D162" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B163" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C163" t="s">
+        <v>139</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B164" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C164" t="s">
+        <v>139</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B165" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C165" t="s">
+        <v>139</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B166" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C166" t="s">
+        <v>139</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B167" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C167" t="s">
+        <v>139</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B168" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C168" t="s">
+        <v>139</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B169" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C169" t="s">
+        <v>139</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B170" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C170" t="s">
+        <v>139</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B171" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C171" t="s">
+        <v>139</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B172" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C172" t="s">
+        <v>139</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B174" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C174" t="s">
+        <v>139</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B175" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C175" t="s">
+        <v>139</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+      <c r="B177" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C177" t="s">
+        <v>139</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B178" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C178" t="s">
+        <v>139</v>
+      </c>
+      <c r="D178" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F178" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B179" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C179" t="s">
+        <v>139</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
+      <c r="B180" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C180" t="s">
+        <v>139</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" s="13" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B181" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C181" t="s">
+        <v>139</v>
+      </c>
+      <c r="D181" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F181" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B183" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C183" t="s">
+        <v>139</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B184" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C184" t="s">
+        <v>139</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C185" t="s">
+        <v>139</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E185" t="s">
+        <v>11</v>
+      </c>
+      <c r="F185" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="8" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B187" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C187" t="s">
+        <v>139</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B188" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C188" t="s">
+        <v>139</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B189" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C189" t="s">
+        <v>139</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B190" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C190" t="s">
+        <v>139</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C191" t="s">
+        <v>139</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E191" t="s">
+        <v>11</v>
+      </c>
+      <c r="F191" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C192" t="s">
+        <v>139</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E192" t="s">
+        <v>11</v>
+      </c>
+      <c r="F192" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B193" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C193" t="s">
+        <v>139</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B194" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C194" t="s">
+        <v>139</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C195" t="s">
+        <v>139</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F195" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C196" t="s">
+        <v>139</v>
+      </c>
+      <c r="D196" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F196" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>115</v>
       </c>

--- a/Chips2016-01.xlsx
+++ b/Chips2016-01.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="145">
   <si>
     <t>Final status</t>
   </si>
@@ -908,8 +908,8 @@
   <dimension ref="A1:J211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F81" sqref="F81:F82"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A78" sqref="A78:XFD78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1392,8 +1392,8 @@
       <c r="E31" t="s">
         <v>11</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>10</v>
+      <c r="F31" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -2016,8 +2016,8 @@
       <c r="E73" t="s">
         <v>11</v>
       </c>
-      <c r="F73" s="7" t="s">
-        <v>10</v>
+      <c r="F73" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -2095,8 +2095,8 @@
       <c r="E78" t="s">
         <v>11</v>
       </c>
-      <c r="F78" s="7" t="s">
-        <v>10</v>
+      <c r="F78" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -2128,6 +2128,9 @@
       <c r="A81">
         <v>379</v>
       </c>
+      <c r="B81" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="C81" t="s">
         <v>121</v>
       </c>
@@ -2142,6 +2145,9 @@
       <c r="A82">
         <v>380</v>
       </c>
+      <c r="B82" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="C82" t="s">
         <v>121</v>
       </c>
@@ -2156,10 +2162,16 @@
       <c r="A83">
         <v>381</v>
       </c>
+      <c r="B83" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="C83" t="s">
         <v>121</v>
       </c>
       <c r="D83" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F83" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2167,10 +2179,16 @@
       <c r="A84">
         <v>382</v>
       </c>
+      <c r="B84" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="C84" t="s">
         <v>121</v>
       </c>
       <c r="D84" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F84" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2178,10 +2196,16 @@
       <c r="A85">
         <v>383</v>
       </c>
+      <c r="B85" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="C85" t="s">
         <v>121</v>
       </c>
       <c r="D85" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F85" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2189,10 +2213,16 @@
       <c r="A86">
         <v>384</v>
       </c>
+      <c r="B86" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="C86" t="s">
         <v>121</v>
       </c>
       <c r="D86" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F86" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2200,10 +2230,16 @@
       <c r="A87">
         <v>385</v>
       </c>
+      <c r="B87" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="C87" t="s">
         <v>121</v>
       </c>
       <c r="D87" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F87" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2222,10 +2258,16 @@
       <c r="A89">
         <v>387</v>
       </c>
+      <c r="B89" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="C89" t="s">
         <v>121</v>
       </c>
       <c r="D89" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F89" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2233,10 +2275,16 @@
       <c r="A90">
         <v>388</v>
       </c>
+      <c r="B90" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="C90" t="s">
         <v>121</v>
       </c>
       <c r="D90" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F90" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2244,10 +2292,16 @@
       <c r="A91">
         <v>389</v>
       </c>
+      <c r="B91" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="C91" t="s">
         <v>121</v>
       </c>
       <c r="D91" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F91" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2261,15 +2315,24 @@
       <c r="D92" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="F92" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>391</v>
       </c>
+      <c r="B93" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="C93" t="s">
         <v>121</v>
       </c>
       <c r="D93" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F93" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2277,10 +2340,16 @@
       <c r="A94">
         <v>392</v>
       </c>
+      <c r="B94" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="C94" t="s">
         <v>121</v>
       </c>
       <c r="D94" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F94" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2294,6 +2363,9 @@
       <c r="D95" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="F95" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
@@ -2327,6 +2399,9 @@
       <c r="D98" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="F98" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
@@ -2349,6 +2424,12 @@
       <c r="D100" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E100" t="s">
+        <v>11</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
@@ -2371,6 +2452,9 @@
       <c r="D102" s="6" t="s">
         <v>12</v>
       </c>
+      <c r="F102" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
@@ -2379,6 +2463,9 @@
       <c r="D103" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="F103" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
@@ -2387,12 +2474,18 @@
       <c r="D104" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="F104" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>403</v>
       </c>
       <c r="D105" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F105" s="2" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Chips2016-01.xlsx
+++ b/Chips2016-01.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="147">
   <si>
     <t>Final status</t>
   </si>
@@ -451,6 +451,12 @@
   </si>
   <si>
     <t>CSAM</t>
+  </si>
+  <si>
+    <t>SLAC ?</t>
+  </si>
+  <si>
+    <t>several tries with missing channels</t>
   </si>
 </sst>
 </file>
@@ -908,8 +914,8 @@
   <dimension ref="A1:J211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A78" sqref="A78:XFD78"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1642,6 +1648,9 @@
       <c r="A48">
         <v>346</v>
       </c>
+      <c r="B48" s="15" t="s">
+        <v>145</v>
+      </c>
       <c r="D48" s="2" t="s">
         <v>7</v>
       </c>
@@ -2315,8 +2324,11 @@
       <c r="D92" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F92" s="6" t="s">
-        <v>12</v>
+      <c r="E92" t="s">
+        <v>146</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">

--- a/Chips2016-01.xlsx
+++ b/Chips2016-01.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="154">
   <si>
     <t>Final status</t>
   </si>
@@ -441,9 +441,6 @@
     <t>Reserved</t>
   </si>
   <si>
-    <t>Pending (noise)</t>
-  </si>
-  <si>
     <t>I.P.N.L</t>
   </si>
   <si>
@@ -457,6 +454,30 @@
   </si>
   <si>
     <t>several tries with missing channels</t>
+  </si>
+  <si>
+    <t>BNL</t>
+  </si>
+  <si>
+    <t>SOCKET ARIES</t>
+  </si>
+  <si>
+    <t>SOCKET ARIES    noise</t>
+  </si>
+  <si>
+    <t>SOCKET ARIES noise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOCKET ARIES </t>
+  </si>
+  <si>
+    <t>OK, Pending noise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOCKET ARIES    </t>
+  </si>
+  <si>
+    <t>power suply</t>
   </si>
 </sst>
 </file>
@@ -914,8 +935,8 @@
   <dimension ref="A1:J211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E93" sqref="E93"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1129,7 +1150,7 @@
         <v>311</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
@@ -1146,7 +1167,7 @@
         <v>312</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>7</v>
@@ -1160,7 +1181,7 @@
         <v>313</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>7</v>
@@ -1174,7 +1195,7 @@
         <v>314</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
@@ -1191,7 +1212,7 @@
         <v>315</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>7</v>
@@ -1205,7 +1226,7 @@
         <v>316</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>7</v>
@@ -1239,7 +1260,7 @@
         <v>318</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>7</v>
@@ -1253,7 +1274,7 @@
         <v>319</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>7</v>
@@ -1267,7 +1288,7 @@
         <v>320</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>7</v>
@@ -1281,7 +1302,7 @@
         <v>321</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>7</v>
@@ -1295,7 +1316,7 @@
         <v>322</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>7</v>
@@ -1309,7 +1330,7 @@
         <v>323</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>7</v>
@@ -1323,7 +1344,7 @@
         <v>324</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>7</v>
@@ -1337,7 +1358,7 @@
         <v>325</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>7</v>
@@ -1351,7 +1372,7 @@
         <v>326</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>7</v>
@@ -1365,7 +1386,7 @@
         <v>327</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C29" t="s">
         <v>122</v>
@@ -1381,6 +1402,9 @@
       <c r="A30">
         <v>328</v>
       </c>
+      <c r="B30" s="15" t="s">
+        <v>146</v>
+      </c>
       <c r="D30" s="2" t="s">
         <v>7</v>
       </c>
@@ -1392,6 +1416,9 @@
       <c r="A31">
         <v>329</v>
       </c>
+      <c r="B31" s="15" t="s">
+        <v>121</v>
+      </c>
       <c r="D31" s="2" t="s">
         <v>7</v>
       </c>
@@ -1407,7 +1434,7 @@
         <v>330</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>7</v>
@@ -1421,7 +1448,7 @@
         <v>331</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C33" t="s">
         <v>120</v>
@@ -1438,7 +1465,7 @@
         <v>332</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C34" t="s">
         <v>120</v>
@@ -1455,7 +1482,7 @@
         <v>333</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>7</v>
@@ -1469,7 +1496,7 @@
         <v>334</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>7</v>
@@ -1483,7 +1510,7 @@
         <v>335</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>7</v>
@@ -1497,7 +1524,7 @@
         <v>336</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>7</v>
@@ -1511,7 +1538,7 @@
         <v>337</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>7</v>
@@ -1525,7 +1552,7 @@
         <v>338</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C40" t="s">
         <v>120</v>
@@ -1542,7 +1569,7 @@
         <v>339</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>7</v>
@@ -1556,7 +1583,7 @@
         <v>340</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C42" t="s">
         <v>11</v>
@@ -1573,7 +1600,7 @@
         <v>341</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>7</v>
@@ -1587,7 +1614,7 @@
         <v>342</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>7</v>
@@ -1601,7 +1628,7 @@
         <v>343</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>7</v>
@@ -1615,7 +1642,7 @@
         <v>344</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C46" t="s">
         <v>11</v>
@@ -1632,7 +1659,7 @@
         <v>345</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C47" t="s">
         <v>123</v>
@@ -1649,7 +1676,7 @@
         <v>346</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>7</v>
@@ -1658,7 +1685,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>347</v>
       </c>
@@ -1671,13 +1698,19 @@
       <c r="F49" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49" t="s">
+        <v>147</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>348</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>7</v>
@@ -1686,12 +1719,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>349</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>7</v>
@@ -1700,12 +1733,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>350</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>7</v>
@@ -1714,12 +1747,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>351</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>7</v>
@@ -1728,12 +1761,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>352</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>7</v>
@@ -1742,12 +1775,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>353</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>7</v>
@@ -1756,12 +1789,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>354</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>7</v>
@@ -1770,12 +1803,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>355</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>7</v>
@@ -1784,12 +1817,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>356</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>7</v>
@@ -1798,12 +1831,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>357</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>7</v>
@@ -1812,12 +1845,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>358</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>7</v>
@@ -1826,12 +1859,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>359</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>7</v>
@@ -1840,12 +1873,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>360</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>7</v>
@@ -1854,12 +1887,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>361</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>7</v>
@@ -1868,12 +1901,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>362</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>7</v>
@@ -1882,12 +1915,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>363</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>7</v>
@@ -1896,7 +1929,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>364</v>
       </c>
@@ -1909,13 +1942,19 @@
       <c r="F66" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G66" t="s">
+        <v>147</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>365</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>7</v>
@@ -1927,7 +1966,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>366</v>
       </c>
@@ -1947,7 +1986,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>367</v>
       </c>
@@ -1964,12 +2003,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>368</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C70" t="s">
         <v>11</v>
@@ -1984,12 +2023,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>369</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C71" t="s">
         <v>11</v>
@@ -2001,12 +2040,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>370</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>7</v>
@@ -2015,10 +2054,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>371</v>
       </c>
+      <c r="B73" s="15" t="s">
+        <v>121</v>
+      </c>
       <c r="D73" s="2" t="s">
         <v>7</v>
       </c>
@@ -2029,12 +2071,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>372</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>7</v>
@@ -2043,12 +2085,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>373</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C75" t="s">
         <v>120</v>
@@ -2060,12 +2102,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>374</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>7</v>
@@ -2074,7 +2116,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>375</v>
       </c>
@@ -2091,10 +2133,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>376</v>
       </c>
+      <c r="B78" s="15" t="s">
+        <v>146</v>
+      </c>
       <c r="C78" t="s">
         <v>135</v>
       </c>
@@ -2108,10 +2153,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>377</v>
       </c>
+      <c r="B79" s="15" t="s">
+        <v>146</v>
+      </c>
       <c r="C79" t="s">
         <v>121</v>
       </c>
@@ -2122,7 +2170,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>378</v>
       </c>
@@ -2130,6 +2178,12 @@
         <v>121</v>
       </c>
       <c r="D80" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80" t="s">
+        <v>153</v>
+      </c>
+      <c r="F80" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2138,7 +2192,7 @@
         <v>379</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C81" t="s">
         <v>121</v>
@@ -2155,7 +2209,7 @@
         <v>380</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C82" t="s">
         <v>121</v>
@@ -2172,7 +2226,7 @@
         <v>381</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C83" t="s">
         <v>121</v>
@@ -2189,7 +2243,7 @@
         <v>382</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C84" t="s">
         <v>121</v>
@@ -2206,7 +2260,7 @@
         <v>383</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C85" t="s">
         <v>121</v>
@@ -2223,7 +2277,7 @@
         <v>384</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C86" t="s">
         <v>121</v>
@@ -2240,7 +2294,7 @@
         <v>385</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C87" t="s">
         <v>121</v>
@@ -2256,10 +2310,16 @@
       <c r="A88">
         <v>386</v>
       </c>
+      <c r="B88" s="15" t="s">
+        <v>121</v>
+      </c>
       <c r="C88" t="s">
         <v>121</v>
       </c>
       <c r="D88" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F88" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2268,7 +2328,7 @@
         <v>387</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C89" t="s">
         <v>121</v>
@@ -2285,7 +2345,7 @@
         <v>388</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C90" t="s">
         <v>121</v>
@@ -2302,7 +2362,7 @@
         <v>389</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C91" t="s">
         <v>121</v>
@@ -2325,7 +2385,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>7</v>
@@ -2336,7 +2396,7 @@
         <v>391</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C93" t="s">
         <v>121</v>
@@ -2353,7 +2413,7 @@
         <v>392</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C94" t="s">
         <v>121</v>
@@ -2369,6 +2429,9 @@
       <c r="A95">
         <v>393</v>
       </c>
+      <c r="B95" s="15" t="s">
+        <v>146</v>
+      </c>
       <c r="C95" t="s">
         <v>121</v>
       </c>
@@ -2389,8 +2452,11 @@
       <c r="D96" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F96" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>395</v>
       </c>
@@ -2400,11 +2466,17 @@
       <c r="D97" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F97" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>396</v>
       </c>
+      <c r="B98" s="15" t="s">
+        <v>146</v>
+      </c>
       <c r="C98" t="s">
         <v>121</v>
       </c>
@@ -2415,7 +2487,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>397</v>
       </c>
@@ -2425,8 +2497,11 @@
       <c r="D99" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F99" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>398</v>
       </c>
@@ -2443,7 +2518,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>399</v>
       </c>
@@ -2453,11 +2528,17 @@
       <c r="D101" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F101" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>400</v>
       </c>
+      <c r="B102" s="15" t="s">
+        <v>121</v>
+      </c>
       <c r="C102" t="s">
         <v>125</v>
       </c>
@@ -2468,10 +2549,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>401</v>
       </c>
+      <c r="B103" s="15" t="s">
+        <v>146</v>
+      </c>
       <c r="D103" s="2" t="s">
         <v>7</v>
       </c>
@@ -2479,10 +2563,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>402</v>
       </c>
+      <c r="B104" s="15" t="s">
+        <v>146</v>
+      </c>
       <c r="D104" s="2" t="s">
         <v>7</v>
       </c>
@@ -2490,10 +2577,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>403</v>
       </c>
+      <c r="B105" s="15" t="s">
+        <v>146</v>
+      </c>
       <c r="D105" s="2" t="s">
         <v>7</v>
       </c>
@@ -2501,7 +2591,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>13</v>
       </c>
@@ -2517,11 +2607,14 @@
       <c r="F106" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G106" s="10" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G106" t="s">
+        <v>147</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>14</v>
       </c>
@@ -2535,7 +2628,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>15</v>
       </c>
@@ -2549,12 +2642,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>17</v>
       </c>
@@ -2570,11 +2663,14 @@
       <c r="F110" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G110" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G110" t="s">
+        <v>147</v>
+      </c>
+      <c r="H110" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>18</v>
       </c>
@@ -2587,8 +2683,14 @@
       <c r="F111" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G111" t="s">
+        <v>147</v>
+      </c>
+      <c r="H111" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>19</v>
       </c>
@@ -2621,7 +2723,7 @@
         <v>21</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C114" t="s">
         <v>128</v>
@@ -2670,7 +2772,7 @@
         <v>23</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C116" t="s">
         <v>127</v>
@@ -2693,7 +2795,7 @@
         <v>24</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C117" t="s">
         <v>130</v>
@@ -2713,7 +2815,7 @@
         <v>25</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C118" t="s">
         <v>131</v>
@@ -2788,6 +2890,12 @@
       <c r="F123" s="6" t="s">
         <v>12</v>
       </c>
+      <c r="G123" t="s">
+        <v>147</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
@@ -2813,16 +2921,31 @@
       <c r="F125" s="6" t="s">
         <v>12</v>
       </c>
+      <c r="G125" t="s">
+        <v>147</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>33</v>
       </c>
+      <c r="B126" s="15" t="s">
+        <v>121</v>
+      </c>
       <c r="D126" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F126" s="6" t="s">
         <v>12</v>
+      </c>
+      <c r="G126" t="s">
+        <v>147</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
@@ -2838,6 +2961,12 @@
       <c r="F127" s="7" t="s">
         <v>10</v>
       </c>
+      <c r="G127" t="s">
+        <v>147</v>
+      </c>
+      <c r="H127" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
@@ -2853,7 +2982,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>36</v>
       </c>
@@ -2867,7 +2996,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>37</v>
       </c>
@@ -2881,17 +3010,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>39</v>
       </c>
       <c r="B132" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>7</v>
@@ -2903,12 +3032,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>40</v>
       </c>
       <c r="B133" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>7</v>
@@ -2917,12 +3046,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>41</v>
       </c>
       <c r="B134" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>7</v>
@@ -2934,12 +3063,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>42</v>
       </c>
       <c r="B135" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>7</v>
@@ -2948,12 +3077,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>43</v>
       </c>
       <c r="B136" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>7</v>
@@ -2962,12 +3091,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>44</v>
       </c>
       <c r="B137" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>7</v>
@@ -2976,12 +3105,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>45</v>
       </c>
       <c r="B138" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>7</v>
@@ -2990,12 +3119,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>46</v>
       </c>
       <c r="B139" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D139" s="6" t="s">
         <v>12</v>
@@ -3004,10 +3133,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>47</v>
       </c>
+      <c r="B140" s="15" t="s">
+        <v>146</v>
+      </c>
       <c r="D140" s="2" t="s">
         <v>7</v>
       </c>
@@ -3015,7 +3147,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>48</v>
       </c>
@@ -3028,13 +3160,19 @@
       <c r="F141" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G141" t="s">
+        <v>147</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>49</v>
       </c>
       <c r="B142" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D142" s="6" t="s">
         <v>12</v>
@@ -3043,12 +3181,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>50</v>
       </c>
       <c r="B143" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>7</v>
@@ -3057,12 +3195,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>51</v>
       </c>
       <c r="B144" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>7</v>
@@ -3071,12 +3209,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>52</v>
       </c>
       <c r="B145" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>7</v>
@@ -3085,12 +3223,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>53</v>
       </c>
       <c r="B146" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>7</v>
@@ -3099,12 +3237,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>54</v>
       </c>
       <c r="B147" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>7</v>
@@ -3113,12 +3251,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>55</v>
       </c>
       <c r="B148" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C148" t="s">
         <v>11</v>
@@ -3130,12 +3268,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>56</v>
       </c>
       <c r="B149" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>7</v>
@@ -3144,7 +3282,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="14" t="s">
         <v>57</v>
       </c>
@@ -3154,11 +3292,20 @@
       <c r="F150" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G150" t="s">
+        <v>147</v>
+      </c>
+      <c r="H150" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>58</v>
       </c>
+      <c r="B151" s="15" t="s">
+        <v>146</v>
+      </c>
       <c r="D151" s="2" t="s">
         <v>7</v>
       </c>
@@ -3166,18 +3313,27 @@
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>59</v>
       </c>
+      <c r="B152" s="15" t="s">
+        <v>121</v>
+      </c>
       <c r="D152" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F152" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G152" t="s">
+        <v>147</v>
+      </c>
+      <c r="H152" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>60</v>
       </c>
@@ -3187,24 +3343,39 @@
       <c r="F153" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G153" t="s">
+        <v>147</v>
+      </c>
+      <c r="H153" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>61</v>
       </c>
+      <c r="B154" s="15" t="s">
+        <v>121</v>
+      </c>
       <c r="D154" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F154" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G154" t="s">
+        <v>147</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>62</v>
       </c>
       <c r="B155" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C155" t="s">
         <v>11</v>
@@ -3216,12 +3387,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>63</v>
       </c>
       <c r="B156" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>7</v>
@@ -3230,12 +3401,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>64</v>
       </c>
       <c r="B157" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>7</v>
@@ -3244,12 +3415,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>65</v>
       </c>
       <c r="B158" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>7</v>
@@ -3258,12 +3429,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>66</v>
       </c>
       <c r="B159" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D159" s="7" t="s">
         <v>10</v>
@@ -3272,12 +3443,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>67</v>
       </c>
       <c r="B160" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C160" t="s">
         <v>139</v>
@@ -3294,7 +3465,7 @@
         <v>68</v>
       </c>
       <c r="B161" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C161" t="s">
         <v>139</v>
@@ -3311,7 +3482,7 @@
         <v>69</v>
       </c>
       <c r="B162" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C162" t="s">
         <v>139</v>
@@ -3328,7 +3499,7 @@
         <v>70</v>
       </c>
       <c r="B163" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C163" t="s">
         <v>139</v>
@@ -3345,7 +3516,7 @@
         <v>71</v>
       </c>
       <c r="B164" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C164" t="s">
         <v>139</v>
@@ -3362,7 +3533,7 @@
         <v>72</v>
       </c>
       <c r="B165" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C165" t="s">
         <v>139</v>
@@ -3379,7 +3550,7 @@
         <v>73</v>
       </c>
       <c r="B166" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C166" t="s">
         <v>139</v>
@@ -3396,7 +3567,7 @@
         <v>74</v>
       </c>
       <c r="B167" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C167" t="s">
         <v>139</v>
@@ -3413,7 +3584,7 @@
         <v>75</v>
       </c>
       <c r="B168" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C168" t="s">
         <v>139</v>
@@ -3430,7 +3601,7 @@
         <v>76</v>
       </c>
       <c r="B169" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C169" t="s">
         <v>139</v>
@@ -3447,7 +3618,7 @@
         <v>77</v>
       </c>
       <c r="B170" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C170" t="s">
         <v>139</v>
@@ -3464,7 +3635,7 @@
         <v>78</v>
       </c>
       <c r="B171" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C171" t="s">
         <v>139</v>
@@ -3481,7 +3652,7 @@
         <v>79</v>
       </c>
       <c r="B172" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C172" t="s">
         <v>139</v>
@@ -3503,7 +3674,7 @@
         <v>81</v>
       </c>
       <c r="B174" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C174" t="s">
         <v>139</v>
@@ -3520,7 +3691,7 @@
         <v>82</v>
       </c>
       <c r="B175" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C175" t="s">
         <v>139</v>
@@ -3537,12 +3708,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>84</v>
       </c>
       <c r="B177" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C177" t="s">
         <v>139</v>
@@ -3554,12 +3725,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="13" t="s">
         <v>85</v>
       </c>
       <c r="B178" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C178" t="s">
         <v>139</v>
@@ -3571,12 +3742,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>86</v>
       </c>
       <c r="B179" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C179" t="s">
         <v>139</v>
@@ -3588,12 +3759,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>87</v>
       </c>
       <c r="B180" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C180" t="s">
         <v>139</v>
@@ -3605,12 +3776,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="13" t="s">
         <v>88</v>
       </c>
       <c r="B181" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C181" t="s">
         <v>139</v>
@@ -3622,17 +3793,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="182" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>90</v>
       </c>
       <c r="B183" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C183" t="s">
         <v>139</v>
@@ -3644,12 +3815,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>91</v>
       </c>
       <c r="B184" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C184" t="s">
         <v>139</v>
@@ -3661,10 +3832,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>92</v>
       </c>
+      <c r="B185" s="15" t="s">
+        <v>121</v>
+      </c>
       <c r="C185" t="s">
         <v>139</v>
       </c>
@@ -3677,18 +3851,24 @@
       <c r="F185" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G185" t="s">
+        <v>147</v>
+      </c>
+      <c r="H185" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="8" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>94</v>
       </c>
       <c r="B187" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C187" t="s">
         <v>139</v>
@@ -3700,12 +3880,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>95</v>
       </c>
       <c r="B188" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C188" t="s">
         <v>139</v>
@@ -3717,12 +3897,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>96</v>
       </c>
       <c r="B189" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C189" t="s">
         <v>139</v>
@@ -3734,12 +3914,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>97</v>
       </c>
       <c r="B190" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C190" t="s">
         <v>139</v>
@@ -3751,7 +3931,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>98</v>
       </c>
@@ -3767,8 +3947,14 @@
       <c r="F191" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G191" t="s">
+        <v>149</v>
+      </c>
+      <c r="H191" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>99</v>
       </c>
@@ -3784,13 +3970,19 @@
       <c r="F192" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G192" t="s">
+        <v>149</v>
+      </c>
+      <c r="H192" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>100</v>
       </c>
       <c r="B193" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C193" t="s">
         <v>139</v>
@@ -3802,12 +3994,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>101</v>
       </c>
       <c r="B194" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C194" t="s">
         <v>139</v>
@@ -3819,7 +4011,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>102</v>
       </c>
@@ -3832,11 +4024,20 @@
       <c r="F195" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G195" t="s">
+        <v>150</v>
+      </c>
+      <c r="H195" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>103</v>
       </c>
+      <c r="B196" s="15" t="s">
+        <v>121</v>
+      </c>
       <c r="C196" t="s">
         <v>139</v>
       </c>
@@ -3846,80 +4047,269 @@
       <c r="F196" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G196" t="s">
+        <v>147</v>
+      </c>
+      <c r="H196" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C197" t="s">
+        <v>147</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E197" t="s">
+        <v>147</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C198" t="s">
+        <v>147</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E198" t="s">
+        <v>147</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C199" t="s">
+        <v>147</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E199" t="s">
+        <v>147</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C200" t="s">
+        <v>148</v>
+      </c>
+      <c r="D200" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E200" t="s">
+        <v>148</v>
+      </c>
+      <c r="F200" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C201" t="s">
+        <v>147</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E201" t="s">
+        <v>152</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C202" t="s">
+        <v>147</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E202" t="s">
+        <v>152</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C203" t="s">
+        <v>147</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E203" t="s">
+        <v>152</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C204" t="s">
+        <v>147</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E204" t="s">
+        <v>152</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C205" t="s">
+        <v>147</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E205" t="s">
+        <v>152</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C206" t="s">
+        <v>147</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E206" t="s">
+        <v>152</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C207" t="s">
+        <v>147</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E207" t="s">
+        <v>152</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C208" t="s">
+        <v>147</v>
+      </c>
+      <c r="D208" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E208" t="s">
+        <v>152</v>
+      </c>
+      <c r="F208" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C209" t="s">
+        <v>147</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E209" t="s">
+        <v>152</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C210" t="s">
+        <v>147</v>
+      </c>
+      <c r="D210" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E210" t="s">
+        <v>152</v>
+      </c>
+      <c r="F210" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>118</v>
+      </c>
+      <c r="B211" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C211" t="s">
+        <v>147</v>
+      </c>
+      <c r="D211" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E211" t="s">
+        <v>152</v>
+      </c>
+      <c r="F211" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Chips2016-01.xlsx
+++ b/Chips2016-01.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="155">
   <si>
     <t>Final status</t>
   </si>
@@ -478,6 +478,9 @@
   </si>
   <si>
     <t>power suply</t>
+  </si>
+  <si>
+    <t>FLEX DAMIC</t>
   </si>
 </sst>
 </file>
@@ -935,8 +938,8 @@
   <dimension ref="A1:J211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
+      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B208" sqref="B208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4210,6 +4213,9 @@
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>113</v>
+      </c>
+      <c r="B206" s="15" t="s">
+        <v>154</v>
       </c>
       <c r="C206" t="s">
         <v>147</v>

--- a/Chips2016-01.xlsx
+++ b/Chips2016-01.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="155">
   <si>
     <t>Final status</t>
   </si>
@@ -938,8 +938,8 @@
   <dimension ref="A1:J211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B208" sqref="B208"/>
+      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B199" sqref="B199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4061,6 +4061,9 @@
       <c r="A197" t="s">
         <v>104</v>
       </c>
+      <c r="B197" s="15" t="s">
+        <v>154</v>
+      </c>
       <c r="C197" t="s">
         <v>147</v>
       </c>
@@ -4077,6 +4080,9 @@
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>105</v>
+      </c>
+      <c r="B198" s="15" t="s">
+        <v>154</v>
       </c>
       <c r="C198" t="s">
         <v>147</v>
